--- a/biology/Médecine/Camille_Biot/Camille_Biot.xlsx
+++ b/biology/Médecine/Camille_Biot/Camille_Biot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille Biot, né le 19 décembre 1850 à Châtenoy-le-Royal, où il est mort le 5 juillet 1918[1], est un médecin français, célèbre pour sa description de ce qui sera nommé, en son honneur, la respiration de Biot[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille Biot, né le 19 décembre 1850 à Châtenoy-le-Royal, où il est mort le 5 juillet 1918, est un médecin français, célèbre pour sa description de ce qui sera nommé, en son honneur, la respiration de Biot.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Saône-et-Loire en 1850, Camille Biot fait son internat de médecine à l'Hôtel-Dieu de Lyon puis obtient sa thèse en médecine de la faculté de médecine de Lyon en 1878. Il exerce ensuite en tant que médecin généraliste à Macon[3],[4].
-Il fut membre adjoint de la Société des sciences médicales et membre titulaire de la Société anatomique de Lyon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Saône-et-Loire en 1850, Camille Biot fait son internat de médecine à l'Hôtel-Dieu de Lyon puis obtient sa thèse en médecine de la faculté de médecine de Lyon en 1878. Il exerce ensuite en tant que médecin généraliste à Macon,.
+Il fut membre adjoint de la Société des sciences médicales et membre titulaire de la Société anatomique de Lyon.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Éditions de Considérations pratiques sur l'opération du bec-de-lièvre (1875)[5]
-Étude clinique et expérimentale sur la respiration de Cheyne-Stokes (1878)[6]
-Étude sur la marche et les causes de l'épidémie de fièvre typhoïde qui a régné à Mâcon en 1881 (1883)[7]
-Cathéter utérin-flexible (1885, Lyon)[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Éditions de Considérations pratiques sur l'opération du bec-de-lièvre (1875)
+Étude clinique et expérimentale sur la respiration de Cheyne-Stokes (1878)
+Étude sur la marche et les causes de l'épidémie de fièvre typhoïde qui a régné à Mâcon en 1881 (1883)
+Cathéter utérin-flexible (1885, Lyon)</t>
         </is>
       </c>
     </row>
